--- a/2020BIO2029/Richard_Bevan.xlsx
+++ b/2020BIO2029/Richard_Bevan.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
   <si>
     <t xml:space="preserve">Round_1 </t>
   </si>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1159,9 @@
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="C20">
         <v>16</v>
       </c>
@@ -1652,12 +1654,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9D959B2D8FA5C4980890EF71530081A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8464467a3c214b5f1f96a1c6931e9059">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1ff86b73-d2ed-45d1-9e31-5b4a0d263f49" xmlns:ns4="917767b3-d7cc-4621-8ad9-27e46fe3c43e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2350c9f3c83915ab211fa80069256091" ns3:_="" ns4:_="">
     <xsd:import namespace="1ff86b73-d2ed-45d1-9e31-5b4a0d263f49"/>
@@ -1880,6 +1876,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1890,23 +1892,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEBE9D9B-F038-4285-BE3A-FEAAE070B76C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1ff86b73-d2ed-45d1-9e31-5b4a0d263f49"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="917767b3-d7cc-4621-8ad9-27e46fe3c43e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E95D1174-CEFB-4A40-ADEC-CFBA0EB7F2DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1925,6 +1910,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEBE9D9B-F038-4285-BE3A-FEAAE070B76C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1ff86b73-d2ed-45d1-9e31-5b4a0d263f49"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="917767b3-d7cc-4621-8ad9-27e46fe3c43e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A93625E-CBD3-45E6-8A1A-61242F2632AE}">
   <ds:schemaRefs>
